--- a/data/trans_orig/Q04C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Estudios-trans_orig.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>29.54192514795054</v>
+        <v>29.54192514795053</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>34.00395541464984</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>27.40966986427731</v>
+        <v>27.58043903536401</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>32.72727359385245</v>
+        <v>32.63511800068687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31.03789108592407</v>
+        <v>31.06895226709364</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>31.39214350526711</v>
+        <v>31.6508844027076</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>35.41103599923731</v>
+        <v>35.30389071380388</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33.31562153181559</v>
+        <v>33.36455393509468</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>17.91202243052991</v>
+        <v>17.91202243052992</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>18.41873715286894</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.25764539471263</v>
+        <v>17.13754870291326</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.7861711055727</v>
+        <v>17.64606128000624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.64567468779785</v>
+        <v>17.6521311876264</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.7210144512317</v>
+        <v>18.72245639036161</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.09011002015338</v>
+        <v>19.04412144847321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.67250135366566</v>
+        <v>18.69265595859866</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.25429119224679</v>
+        <v>15.21382380280653</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.70882673129176</v>
+        <v>15.69044866335153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15.85292928956714</v>
+        <v>15.83630356943104</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.84297116108787</v>
+        <v>18.03906123657176</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.89620081639911</v>
+        <v>17.84601203883913</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.58585079176873</v>
+        <v>17.56061099388558</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>18.88923436621482</v>
+        <v>18.87016293984916</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>20.87427340498045</v>
+        <v>20.94215299310446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20.17273716573066</v>
+        <v>20.14101244446642</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.25191723621074</v>
+        <v>20.24015689314651</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.0739180717549</v>
+        <v>22.16024394791153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.01900216693742</v>
+        <v>21.00740228713244</v>
       </c>
     </row>
     <row r="16">
